--- a/main/experiment/results_summary_excel/housing_results_summary3.xlsx
+++ b/main/experiment/results_summary_excel/housing_results_summary3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\workspace-VisualStudio\AG_IA_2324\main\experiment\results_summary_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1257FCF-4F2D-4488-BF60-60AE1995C97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB56A3E-FAE0-4183-BF74-7F508E4C1034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34905" yWindow="5715" windowWidth="28800" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,16 +451,17 @@
   <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
